--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willrui/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willrui/OneDrive/科研/my work/semester 2 year 4/JosTran article/Finalised Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95473B72-BD10-3844-A4E7-24E70975E730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE4DC0D-34CA-4C47-BF75-1815A85EA9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="580" windowWidth="35740" windowHeight="19400" xr2:uid="{071A7BA8-E958-A24F-8B13-557C646DA9E9}"/>
+    <workbookView xWindow="500" yWindow="-21140" windowWidth="35740" windowHeight="19400" xr2:uid="{071A7BA8-E958-A24F-8B13-557C646DA9E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
-  <si>
-    <t>Russian Videos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Title of the Video</t>
   </si>
   <si>
-    <t>Link of the Video</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=z-kkuKyPWDk</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>https://www.youtube.com/watch?v=ULUXRGqFRmY</t>
   </si>
   <si>
-    <t>普京为俄残奥运动员颁奖 美女运动员代表发言好催泪啊【观察者网】</t>
-  </si>
-  <si>
     <t>普京接受日媒采访带着安倍送的秋田犬 日本记者呵呵呵</t>
   </si>
   <si>
@@ -236,9 +227,6 @@
     <t>Путин принимает участие в заседании Высшего евразийского экономического совета</t>
   </si>
   <si>
-    <t>这位同学请管理好你的表情【观察者网】</t>
-  </si>
-  <si>
     <t>普京画的这个东西 你们尽管猜 猜对了算我输</t>
   </si>
   <si>
@@ -330,6 +318,162 @@
   </si>
   <si>
     <t>Chinese Videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Videos </t>
+  </si>
+  <si>
+    <t>Link of the Video (of note, these Russian videos are no longer accessible because RT has been banned on YouTube)</t>
+  </si>
+  <si>
+    <t>Putin Couldn’t Read His Notes Again, Frozen for 20 Seconds…</t>
+  </si>
+  <si>
+    <t>Putin Responds to the Poisoning of the ‘Double Agent’: If It Had Been a Chemical Weapon, He Would Have Died at the Site</t>
+  </si>
+  <si>
+    <t>Vladimir Putin’s Speech at the Campaign Headquarters</t>
+  </si>
+  <si>
+    <t>Let’s Run Away!: The Crash of the First Drone of the ‘Russian Post’</t>
+  </si>
+  <si>
+    <t>Russian Post Office’s First Drone Delivery Crashes Soon after It Takes Off</t>
+  </si>
+  <si>
+    <t>Shooting in Dagestan, Russia, Five Deaths and Four Injuries</t>
+  </si>
+  <si>
+    <t>Surveillance Cameras Filmed a Criminal Who Started Shooting in Kizlyar</t>
+  </si>
+  <si>
+    <t>Putin commented on doping scandal and WADA hack</t>
+  </si>
+  <si>
+    <t>Hackers Exposed Doping Use among European and American Athletes. This Classmate Please Manage Your Facial Expressions</t>
+  </si>
+  <si>
+    <t>黑客曝光欧美运动员服禁药 这位同学请管理好你的表情</t>
+  </si>
+  <si>
+    <t>普京为俄残奥运动员颁奖 美女运动员代表发言好催泪啊</t>
+  </si>
+  <si>
+    <t>Putin Presents Awards to Russian Paralympic Athletes, the Beautiful Athlete's Speech so Touching</t>
+  </si>
+  <si>
+    <t>Putin Taking an Akita Dog Gifted by Shinzo Abe When Being Interviewed by a Japanese Media Outlet; The Japanese Journalists Smiled Awkwardly</t>
+  </si>
+  <si>
+    <t>Guess What Putin Has Drawn, If You Are Right then I Lose the Game</t>
+  </si>
+  <si>
+    <t>The Russians Use Guns as Musical Instruments to A New Level, Whether the Fighting Enthic Group's Elegence Scares You or Not?</t>
+  </si>
+  <si>
+    <t>Three Days After the Protest, Putin and Medvedev Inspect the Polar Region Together</t>
+  </si>
+  <si>
+    <t>[Daily of the Straight-Forward Speaking Russians] Chapter of Russian Foreign Minister</t>
+  </si>
+  <si>
+    <t>He Didn't Blame It… Turkish Officials Languished During the Meeting, The Emperor Couldn't Help…</t>
+  </si>
+  <si>
+    <t>When a Veteran is Wearing a VR Glasses…</t>
+  </si>
+  <si>
+    <t>The Emperor is Angry! Putin Responds Harshly to New Sanctions Against Russia</t>
+  </si>
+  <si>
+    <t>A Russian Su-25 Fighter Jet Was Shot Down in Syria and the Pilot Died during Parachuting</t>
+  </si>
+  <si>
+    <t>The Russian Army Said that A Chemical Lab Was Found in the Newly Liberated Town Douma</t>
+  </si>
+  <si>
+    <t>A Grand Presidential Inauguration Has Taken Place in the Kremlin, Opening Putin’s Fourth Term</t>
+  </si>
+  <si>
+    <t>Seeing a Veteran Pushed Away by a Security Guard, Putin Walks Directly to Him</t>
+  </si>
+  <si>
+    <t>Putin Drives A Truck Across the Newly-Opened Built Crimean Bridge</t>
+  </si>
+  <si>
+    <t>Russia has Won Again! Then Let's Sing Katyusha</t>
+  </si>
+  <si>
+    <t>Russian MiG-31 Fighter Jet CrasheS in Western Russia, The Pilots Survived After Parachuting</t>
+  </si>
+  <si>
+    <t>High Five! Putin and Saudi Crown Prince Interacted Enthusiastically at the G20 Summit</t>
+  </si>
+  <si>
+    <t>After Quarreling with Putin, Belarusian President Applogies: I Have Said the Wrong Thing</t>
+  </si>
+  <si>
+    <t>Putin awards members of the Russian Paralympic team in the Kremlin</t>
+  </si>
+  <si>
+    <t>Putin puzzled schoolchildren with an unusual pattern</t>
+  </si>
+  <si>
+    <t>The head of the Federation of Practical Shooting performed Beethoven and "Murka" on pistols</t>
+  </si>
+  <si>
+    <t>Slaughter classic: shooter plays Strauss on pistols</t>
+  </si>
+  <si>
+    <t>Putin inspected the cleanup of the Arctic: RT report from Franz Josef Land</t>
+  </si>
+  <si>
+    <t>Lavrov: We cannot act like a Schwarzenegger hero trust me</t>
+  </si>
+  <si>
+    <t>Yours don't want to work: Putin joked on the Turkish delegation</t>
+  </si>
+  <si>
+    <t>This is a miracle: a veteran of the Great Patriotic War tried on glasses 360</t>
+  </si>
+  <si>
+    <t>Russian Su-25 attack aircraft shot down in Syria</t>
+  </si>
+  <si>
+    <t>Video of attacks by Russian Su-25 attack aircraft on terrorist positions in Syria</t>
+  </si>
+  <si>
+    <t>Russian military launched precision group strike in Idlib after attack on Su-25</t>
+  </si>
+  <si>
+    <t>Inauguration ceremony of the President of Russia</t>
+  </si>
+  <si>
+    <t>Putin stood up for the veteran, who was pushed aside by the FSO officer after the Victory parade</t>
+  </si>
+  <si>
+    <t>Putin opened the Crimean bridge and drove across it in a KAMAZ</t>
+  </si>
+  <si>
+    <t>Madness on Nikolskaya: in the center of Moscow they celebrate the victory of Russia over Egypt</t>
+  </si>
+  <si>
+    <t>Diplomacy, of course, miserable: American politician on the intention of the United States to isolate Russia</t>
+  </si>
+  <si>
+    <t>Putin takes part in a meeting of the Supreme Eurasian Economic Council</t>
+  </si>
+  <si>
+    <t>Putin and the President of Finland sum up the results of the talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author's English Translation of the Title of the Video </t>
+  </si>
+  <si>
+    <t>Putin's 's+C21trict dog' Yume barked at Japanese journalists</t>
+  </si>
+  <si>
+    <t>I drew like a chicken with a paw': Putin joked about his handwriting</t>
   </si>
 </sst>
 </file>
@@ -401,23 +545,23 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,454 +877,599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AB144B-8A24-EF4B-9E2C-6C7ED9E2E7D9}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="57.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.6640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="17.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="59.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="61.1640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
+      <c r="C5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
+      <c r="C8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+      <c r="C10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
+      <c r="C12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1" t="s">
+      <c r="C17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
+      <c r="C19" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1" t="s">
+      <c r="C20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1" t="s">
+      <c r="C23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="1" t="s">
+      <c r="C25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1" t="s">
+      <c r="C29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="3" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="1" t="s">
+      <c r="C30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="C32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6" t="s">
+      <c r="D38" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6" t="s">
+      <c r="C40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6" t="s">
+      <c r="C43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="C48" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1189,36 +1478,36 @@
     <mergeCell ref="A26:A48"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{2171F40C-4B62-0147-956A-E82F941405BA}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{9B97E673-8C2C-5A47-8327-7BD79D8E2BC9}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{C6AFCFEF-7C9A-D549-9048-A6EF98C0C00C}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{B013FBE3-B987-7F44-85CF-E4DDEE727EF3}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{7A3A2947-9AF1-FB49-88B6-B9C165D87CAD}"/>
-    <hyperlink ref="C8" r:id="rId6" display="https://www.youtube.com/watch?v=ThBH4gvzB9Y" xr:uid="{144B2B62-0E7D-DF4E-8E16-406B154D4208}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{8B1A3236-8E06-9247-BFD8-7F25A6BFB386}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{DDF459CA-A4A2-2C43-84BC-C01C71441B23}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{7F55F8D4-EB1D-BA4C-A4B5-B3A087AE60A9}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{5C57ABB9-9DBB-594E-B3F4-78E148A9CE51}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{26349E38-126A-D845-AF5A-F5DABFAA3508}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{E63CC727-3C4C-FA43-93E0-B9B7DD9B2634}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{899C61DD-1C34-B540-82ED-8F99914A24B6}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{889BCAB7-8C17-5645-809D-E00069AFB8D6}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{97E02E94-B703-294B-8AAB-586E74463A8B}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{2FD581F1-D7EF-DD46-88A5-B17D5EBFE8D8}"/>
-    <hyperlink ref="C20" r:id="rId17" xr:uid="{B916D5FC-0EDD-704E-81DB-8A7429B9F7F6}"/>
-    <hyperlink ref="C21" r:id="rId18" xr:uid="{6D958E26-FD33-8D4D-9A15-AE508453A60D}"/>
-    <hyperlink ref="C22" r:id="rId19" xr:uid="{22092EEC-19C7-1843-850D-FF7691CA4E81}"/>
-    <hyperlink ref="C23" r:id="rId20" xr:uid="{A47D92FB-AD76-0747-A1EB-95952E52A842}"/>
-    <hyperlink ref="C19" r:id="rId21" xr:uid="{C88B145D-E2BF-6445-9FE6-F0D380D4FAFF}"/>
-    <hyperlink ref="C24" r:id="rId22" xr:uid="{7C44DD37-109E-4A47-AE13-D214C1635F09}"/>
-    <hyperlink ref="C25" r:id="rId23" xr:uid="{5ED8ACD5-871E-1A4C-B20A-F2EBC1AF8268}"/>
-    <hyperlink ref="C29" r:id="rId24" xr:uid="{5847BB96-1B8B-E944-8FD1-59056AA99F42}"/>
-    <hyperlink ref="C34" r:id="rId25" xr:uid="{CB1E068A-0F04-7840-BCDC-2B0423103FB2}"/>
-    <hyperlink ref="C31" r:id="rId26" xr:uid="{D22FF58F-8114-E946-A4EB-9ED951AC18F3}"/>
-    <hyperlink ref="C35" r:id="rId27" xr:uid="{A78880AB-65BE-534A-BE63-417A9597F091}"/>
-    <hyperlink ref="C48" r:id="rId28" xr:uid="{50AD66EA-ED13-1E42-B92A-0B76237D10A9}"/>
-    <hyperlink ref="C43" r:id="rId29" xr:uid="{D15020FD-0249-844C-9655-6CBCA58A5AD6}"/>
-    <hyperlink ref="C41" r:id="rId30" xr:uid="{BAEF0868-B111-8444-989B-2D004490BA24}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{2171F40C-4B62-0147-956A-E82F941405BA}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{9B97E673-8C2C-5A47-8327-7BD79D8E2BC9}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{C6AFCFEF-7C9A-D549-9048-A6EF98C0C00C}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{B013FBE3-B987-7F44-85CF-E4DDEE727EF3}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{7A3A2947-9AF1-FB49-88B6-B9C165D87CAD}"/>
+    <hyperlink ref="D8" r:id="rId6" display="https://www.youtube.com/watch?v=ThBH4gvzB9Y" xr:uid="{144B2B62-0E7D-DF4E-8E16-406B154D4208}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{8B1A3236-8E06-9247-BFD8-7F25A6BFB386}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{DDF459CA-A4A2-2C43-84BC-C01C71441B23}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{7F55F8D4-EB1D-BA4C-A4B5-B3A087AE60A9}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{5C57ABB9-9DBB-594E-B3F4-78E148A9CE51}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{26349E38-126A-D845-AF5A-F5DABFAA3508}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{E63CC727-3C4C-FA43-93E0-B9B7DD9B2634}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{899C61DD-1C34-B540-82ED-8F99914A24B6}"/>
+    <hyperlink ref="D18" r:id="rId14" xr:uid="{889BCAB7-8C17-5645-809D-E00069AFB8D6}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{97E02E94-B703-294B-8AAB-586E74463A8B}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{2FD581F1-D7EF-DD46-88A5-B17D5EBFE8D8}"/>
+    <hyperlink ref="D20" r:id="rId17" xr:uid="{B916D5FC-0EDD-704E-81DB-8A7429B9F7F6}"/>
+    <hyperlink ref="D21" r:id="rId18" xr:uid="{6D958E26-FD33-8D4D-9A15-AE508453A60D}"/>
+    <hyperlink ref="D22" r:id="rId19" xr:uid="{22092EEC-19C7-1843-850D-FF7691CA4E81}"/>
+    <hyperlink ref="D23" r:id="rId20" xr:uid="{A47D92FB-AD76-0747-A1EB-95952E52A842}"/>
+    <hyperlink ref="D19" r:id="rId21" xr:uid="{C88B145D-E2BF-6445-9FE6-F0D380D4FAFF}"/>
+    <hyperlink ref="D24" r:id="rId22" xr:uid="{7C44DD37-109E-4A47-AE13-D214C1635F09}"/>
+    <hyperlink ref="D25" r:id="rId23" xr:uid="{5ED8ACD5-871E-1A4C-B20A-F2EBC1AF8268}"/>
+    <hyperlink ref="D29" r:id="rId24" xr:uid="{5847BB96-1B8B-E944-8FD1-59056AA99F42}"/>
+    <hyperlink ref="D34" r:id="rId25" xr:uid="{CB1E068A-0F04-7840-BCDC-2B0423103FB2}"/>
+    <hyperlink ref="D31" r:id="rId26" xr:uid="{D22FF58F-8114-E946-A4EB-9ED951AC18F3}"/>
+    <hyperlink ref="D35" r:id="rId27" xr:uid="{A78880AB-65BE-534A-BE63-417A9597F091}"/>
+    <hyperlink ref="D48" r:id="rId28" xr:uid="{50AD66EA-ED13-1E42-B92A-0B76237D10A9}"/>
+    <hyperlink ref="D43" r:id="rId29" xr:uid="{D15020FD-0249-844C-9655-6CBCA58A5AD6}"/>
+    <hyperlink ref="D41" r:id="rId30" xr:uid="{BAEF0868-B111-8444-989B-2D004490BA24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
